--- a/FVisual_Documentation/UserStoryListe_BacklogItemsErfassung.xlsx
+++ b/FVisual_Documentation/UserStoryListe_BacklogItemsErfassung.xlsx
@@ -5,19 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandro\OneDrive - HTL Villach\Schule\Schule\5AHIF\POS1_LIN\Project\FVisual\FVisual_Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandr\OneDrive - HTL Villach\Schule\Schule\5AHIF\POS1_LIN\Project\FVisual\FVisual_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="269" documentId="13_ncr:1_{1D5C89E9-F122-4CD9-B0A4-16354C845C53}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{DF872B96-8129-4444-9B8A-4D268F1AF8FF}"/>
+  <xr:revisionPtr revIDLastSave="424" documentId="13_ncr:1_{1D5C89E9-F122-4CD9-B0A4-16354C845C53}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{48521D7F-2E83-49EF-B901-44145EEBDC74}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{DA8F7C48-B531-4135-8DC3-731F75A6B69C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{DA8F7C48-B531-4135-8DC3-731F75A6B69C}"/>
   </bookViews>
   <sheets>
     <sheet name="TodoListe" sheetId="1" r:id="rId1"/>
     <sheet name="UserStoryList" sheetId="2" r:id="rId2"/>
-    <sheet name="Product Backlog (Everything)" sheetId="3" r:id="rId3"/>
-    <sheet name="Product Backlog (IT1) (20.11)" sheetId="4" r:id="rId4"/>
-    <sheet name="Sprint Backlog 1 (IT 1) (28.10)" sheetId="5" r:id="rId5"/>
+    <sheet name="Scrumboard" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="144">
   <si>
     <t>Iteration 2</t>
   </si>
@@ -190,9 +188,6 @@
     <t>JavaFX Applikation Einsätze verändern</t>
   </si>
   <si>
-    <t xml:space="preserve">JavaFX Applikation Einsätze löschen </t>
-  </si>
-  <si>
     <t>JavaFX Applikation Stützpunkt anlegen</t>
   </si>
   <si>
@@ -262,9 +257,6 @@
     <t>Tabellen mit Testdaten befüllen</t>
   </si>
   <si>
-    <t>Lister aller US</t>
-  </si>
-  <si>
     <t>US Map</t>
   </si>
   <si>
@@ -277,18 +269,9 @@
     <t>Produktauftrag</t>
   </si>
   <si>
-    <t>Android Applikation Einsätze als Testdaten anzeigen</t>
-  </si>
-  <si>
-    <t>Android Applikation Stützpunkte als Testdaten anzeigen</t>
-  </si>
-  <si>
     <t>JavaFX Applikation Stützpunkt anzeigen</t>
   </si>
   <si>
-    <t>JavaFX GUI Konzept anlegen</t>
-  </si>
-  <si>
     <t>DB US</t>
   </si>
   <si>
@@ -304,30 +287,6 @@
     <t>Android Applikation Einsätze auf der Karte anzeigen (DB Zugriff mit WebService)</t>
   </si>
   <si>
-    <t>JavaFX Applikation Einsätze anzeigen (mit WebService)</t>
-  </si>
-  <si>
-    <t>JavaFX Applikation Einsätze anlegen (mit WebService)</t>
-  </si>
-  <si>
-    <t>JavaFX Applikation Einsätze verändern (mit WebService)</t>
-  </si>
-  <si>
-    <t>JavaFX Applikation Einsätze löschen (mit WebService)</t>
-  </si>
-  <si>
-    <t>JavaFX Applikation Stützpunkt anzeigen (mit WebService)</t>
-  </si>
-  <si>
-    <t>JavaFX Applikation Stützpunkt anlegen (mit WebService)</t>
-  </si>
-  <si>
-    <t>JavaFX Applikation Stützpunkt verändern (mit WebService)</t>
-  </si>
-  <si>
-    <t>JavaFX Applikation Stützpunkt löschen (mit WebService)</t>
-  </si>
-  <si>
     <t>JavaFX Applikation Einsätze löschen</t>
   </si>
   <si>
@@ -337,20 +296,182 @@
     <t>Lastenheft</t>
   </si>
   <si>
-    <t>User Stories bis 28.10</t>
-  </si>
-  <si>
-    <t>User Stories bis 20.11</t>
-  </si>
-  <si>
-    <t>User Stories alle</t>
+    <t>Product Backlog (gesamt)</t>
+  </si>
+  <si>
+    <t>Product Backlog (IT1) (20.11)</t>
+  </si>
+  <si>
+    <t>Sprint Backlog (IT1) (28.10)</t>
+  </si>
+  <si>
+    <t>Sprint Backlog(IT1) (20.11)</t>
+  </si>
+  <si>
+    <t>Product Backlog (IT2) ()</t>
+  </si>
+  <si>
+    <t>Sprint Backlog (IT2) ()</t>
+  </si>
+  <si>
+    <t>Product Backlog (IT3) ()</t>
+  </si>
+  <si>
+    <t>Sprint Backlog (IT3) ()</t>
+  </si>
+  <si>
+    <t>US - Android Applikation Login</t>
+  </si>
+  <si>
+    <t>US - Android Applikation Logout</t>
+  </si>
+  <si>
+    <t>US - Android Applikation User Daten beartbeiten</t>
+  </si>
+  <si>
+    <t>US - Android Applikation Karte anzeigen</t>
+  </si>
+  <si>
+    <t>US - Android Applikation Einsätze als Testdaten anzeigen (Ohne DB Zugriff)</t>
+  </si>
+  <si>
+    <t>US - Android Applikation Stützpunkte als Testdaten anzeigen (Ohne DB Zugriff)</t>
+  </si>
+  <si>
+    <t>US - Android Applikation Einsätze auf der Karte anzeigen (DB Zugriff mit WebService)</t>
+  </si>
+  <si>
+    <t>US - Android Appliaktion Stützpunkte auf Karte anzeigen (DB Zugriff mit WebService)</t>
+  </si>
+  <si>
+    <t>US - Android Applikation Filteroptionen für Karte</t>
+  </si>
+  <si>
+    <t>US - Android Applikation Informationen Anzeigen Stützpunkte</t>
+  </si>
+  <si>
+    <t>US - Android Applikation Informationen Anzeigen Einsätze</t>
+  </si>
+  <si>
+    <t>US - Android Applikation Einsatzbeteiligung anzeigen</t>
+  </si>
+  <si>
+    <t>US - JavaFX Applikation Login</t>
+  </si>
+  <si>
+    <t>US - JavaFX Applikation Logout</t>
+  </si>
+  <si>
+    <t>US - JavaFX Applikation Benutzer anzeigen</t>
+  </si>
+  <si>
+    <t>US - JavaFX Applikation Benutzer anlegen</t>
+  </si>
+  <si>
+    <t>US - JavaFX Applikation Benutzer verändern</t>
+  </si>
+  <si>
+    <t>US - JavaFX Applikation Benutzer löschen</t>
+  </si>
+  <si>
+    <t>US - JavaFX Applikation Einsätze anzeigen (mit WebService)</t>
+  </si>
+  <si>
+    <t>US - JavaFX Applikation Einsätze verändern (mit WebService)</t>
+  </si>
+  <si>
+    <t>US - JavaFX Applikation Einsätze anlegen (mit WebService)</t>
+  </si>
+  <si>
+    <t>US - JavaFX Applikation Einsätze löschen (mit WebService)</t>
+  </si>
+  <si>
+    <t>US - JavaFX Applikation Stützpunkt anzeigen (mit WebService)</t>
+  </si>
+  <si>
+    <t>US - JavaFX Applikation Stützpunkt anlegen (mit WebService)</t>
+  </si>
+  <si>
+    <t>US - JavaFX Applikation Stützpunkt verändern (mit WebService)</t>
+  </si>
+  <si>
+    <t>US - JavaFX Applikation Stützpunkt löschen (mit WebService)</t>
+  </si>
+  <si>
+    <t>US - Webservice Benutzer laden</t>
+  </si>
+  <si>
+    <t>US - Webservice Benutzer anlegen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US - Webservice Benutzer löschen </t>
+  </si>
+  <si>
+    <t>US - Webservice Stützpunkte laden</t>
+  </si>
+  <si>
+    <t>US - Webservice Stützpunkte anlegen</t>
+  </si>
+  <si>
+    <t>US - Webservice Stützpunkte verändern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US - Webservice Stützpunkte löschen </t>
+  </si>
+  <si>
+    <t>US - Webservice Einsätze anlegen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US - Webservice Einsätze laden </t>
+  </si>
+  <si>
+    <t xml:space="preserve">US - Webservice Einsätze verändern </t>
+  </si>
+  <si>
+    <t>US - Webservice Einsätze löschen</t>
+  </si>
+  <si>
+    <t>US - Webservice Authentication</t>
+  </si>
+  <si>
+    <t>US - Tabellen in der Datebank erstellen</t>
+  </si>
+  <si>
+    <t>US - Tabellen mit Testdaten befüllen</t>
+  </si>
+  <si>
+    <t>US - JavaFX GUI Konzept anlegen</t>
+  </si>
+  <si>
+    <t>US - Webservice Benutzer verändern</t>
+  </si>
+  <si>
+    <t>US - Android Applikation Einsätze als Testdaten anzeigen</t>
+  </si>
+  <si>
+    <t>US - Android Applikation Stützpunkte als Testdaten anzeigen</t>
+  </si>
+  <si>
+    <t>US - JavaFX Applikation Einsätze anzeigen</t>
+  </si>
+  <si>
+    <t>US - JavaFX Applikation Einsätze anlegen</t>
+  </si>
+  <si>
+    <t>US - JavaFX Applikation Einsätze verändern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US - JavaFX Applikation Einsätze löschen </t>
+  </si>
+  <si>
+    <t>US - Physische DB anlegen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,6 +481,21 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -432,7 +568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -440,13 +576,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -462,7 +604,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -764,7 +906,7 @@
       <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
@@ -933,19 +1075,19 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="73.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -953,7 +1095,7 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -962,7 +1104,7 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -971,7 +1113,7 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -980,7 +1122,7 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -989,7 +1131,7 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -998,7 +1140,7 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1013,22 +1155,22 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1063,7 +1205,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -1083,7 +1225,7 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
@@ -1098,122 +1240,122 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1222,767 +1364,431 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5524DE1-77B9-4AC1-84D3-E99ED03F7077}">
-  <dimension ref="A1:H50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F10326-AF2F-4D5C-B1AD-D5133480706B}">
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="73.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="78.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="31.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:10" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>99</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E802249B-14A4-4550-AD4D-360E65EECEBC}">
-  <dimension ref="A1:D38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="73.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0874EC48-7FCC-4BD0-A861-D4A639F73DD4}">
-  <dimension ref="A1:D46"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/FVisual_Documentation/UserStoryListe_BacklogItemsErfassung.xlsx
+++ b/FVisual_Documentation/UserStoryListe_BacklogItemsErfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandr\OneDrive - HTL Villach\Schule\Schule\5AHIF\POS1_LIN\Project\FVisual\FVisual_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="424" documentId="13_ncr:1_{1D5C89E9-F122-4CD9-B0A4-16354C845C53}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{48521D7F-2E83-49EF-B901-44145EEBDC74}"/>
+  <xr:revisionPtr revIDLastSave="451" documentId="13_ncr:1_{1D5C89E9-F122-4CD9-B0A4-16354C845C53}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{E5B723E1-4A93-4031-8D50-BF9CD5C4D0ED}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{DA8F7C48-B531-4135-8DC3-731F75A6B69C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="144">
   <si>
     <t>Iteration 2</t>
   </si>
@@ -1367,21 +1367,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F10326-AF2F-4D5C-B1AD-D5133480706B}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="100.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="82.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="60.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="47.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
@@ -1417,17 +1418,35 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>95</v>
       </c>
+      <c r="H2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="8" t="s">
         <v>96</v>
       </c>
+      <c r="H3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1498,51 +1517,105 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="8" t="s">
         <v>104</v>
       </c>
+      <c r="E11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="8" t="s">
         <v>105</v>
       </c>
+      <c r="E12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="8" t="s">
         <v>106</v>
       </c>
+      <c r="E13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="10" t="s">
         <v>107</v>
       </c>
+      <c r="E14" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="10" t="s">
         <v>108</v>
       </c>
+      <c r="E15" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="10" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="E16" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="E17" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="E18" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>113</v>
       </c>
@@ -1553,7 +1626,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>115</v>
       </c>
@@ -1564,7 +1637,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>114</v>
       </c>
@@ -1575,7 +1648,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>116</v>
       </c>
@@ -1586,7 +1659,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>117</v>
       </c>
@@ -1597,7 +1670,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>118</v>
       </c>
@@ -1608,7 +1681,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>119</v>
       </c>
@@ -1619,7 +1692,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>120</v>
       </c>
@@ -1630,7 +1703,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>135</v>
       </c>
@@ -1641,7 +1714,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>121</v>
       </c>
@@ -1652,7 +1725,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>122</v>
       </c>
@@ -1663,7 +1736,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>123</v>
       </c>
@@ -1674,7 +1747,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>136</v>
       </c>
@@ -1685,7 +1758,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>124</v>
       </c>
@@ -1696,7 +1769,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>125</v>
       </c>
@@ -1707,7 +1780,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>126</v>
       </c>
@@ -1718,7 +1791,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>127</v>
       </c>
@@ -1729,32 +1802,62 @@
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="E37" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="E38" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="E39" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="E40" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>133</v>
       </c>
@@ -1765,7 +1868,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>134</v>
       </c>
@@ -1776,7 +1879,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>143</v>
       </c>

--- a/FVisual_Documentation/UserStoryListe_BacklogItemsErfassung.xlsx
+++ b/FVisual_Documentation/UserStoryListe_BacklogItemsErfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandr\OneDrive - HTL Villach\Schule\Schule\5AHIF\POS1_LIN\Project\FVisual\FVisual_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="451" documentId="13_ncr:1_{1D5C89E9-F122-4CD9-B0A4-16354C845C53}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{E5B723E1-4A93-4031-8D50-BF9CD5C4D0ED}"/>
+  <xr:revisionPtr revIDLastSave="489" documentId="13_ncr:1_{1D5C89E9-F122-4CD9-B0A4-16354C845C53}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{465C03F4-BE78-49F3-819C-DA00923E6D9C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{DA8F7C48-B531-4135-8DC3-731F75A6B69C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="145">
   <si>
     <t>Iteration 2</t>
   </si>
@@ -465,6 +465,9 @@
   </si>
   <si>
     <t>US - Physische DB anlegen</t>
+  </si>
+  <si>
+    <t>US - Android GUI Konzept anlegen</t>
   </si>
 </sst>
 </file>
@@ -568,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -586,6 +589,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1365,11 +1371,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F10326-AF2F-4D5C-B1AD-D5133480706B}">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,10 +1515,11 @@
       <c r="A10" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="17"/>
+      <c r="E10" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1550,343 +1557,371 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="A14" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>139</v>
+        <v>112</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B29" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="E30" s="16" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="E31" s="16" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>136</v>
+        <v>123</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="E32" s="16" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>124</v>
+        <v>136</v>
+      </c>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="E33" s="16" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>125</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="E34" s="15"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>126</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="E35" s="15"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>127</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="E36" s="15"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>128</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>129</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>130</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>131</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>133</v>
-      </c>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B45" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C45" s="6" t="s">
         <v>143</v>
       </c>
     </row>

--- a/FVisual_Documentation/UserStoryListe_BacklogItemsErfassung.xlsx
+++ b/FVisual_Documentation/UserStoryListe_BacklogItemsErfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandr\OneDrive - HTL Villach\Schule\Schule\5AHIF\POS1_LIN\Project\FVisual\FVisual_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="489" documentId="13_ncr:1_{1D5C89E9-F122-4CD9-B0A4-16354C845C53}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{465C03F4-BE78-49F3-819C-DA00923E6D9C}"/>
+  <xr:revisionPtr revIDLastSave="647" documentId="13_ncr:1_{1D5C89E9-F122-4CD9-B0A4-16354C845C53}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{35BBFAE0-EEA5-4E26-8EC5-EF0609B039E0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{DA8F7C48-B531-4135-8DC3-731F75A6B69C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="150">
   <si>
     <t>Iteration 2</t>
   </si>
@@ -332,18 +332,6 @@
     <t>US - Android Applikation Karte anzeigen</t>
   </si>
   <si>
-    <t>US - Android Applikation Einsätze als Testdaten anzeigen (Ohne DB Zugriff)</t>
-  </si>
-  <si>
-    <t>US - Android Applikation Stützpunkte als Testdaten anzeigen (Ohne DB Zugriff)</t>
-  </si>
-  <si>
-    <t>US - Android Applikation Einsätze auf der Karte anzeigen (DB Zugriff mit WebService)</t>
-  </si>
-  <si>
-    <t>US - Android Appliaktion Stützpunkte auf Karte anzeigen (DB Zugriff mit WebService)</t>
-  </si>
-  <si>
     <t>US - Android Applikation Filteroptionen für Karte</t>
   </si>
   <si>
@@ -374,30 +362,6 @@
     <t>US - JavaFX Applikation Benutzer löschen</t>
   </si>
   <si>
-    <t>US - JavaFX Applikation Einsätze anzeigen (mit WebService)</t>
-  </si>
-  <si>
-    <t>US - JavaFX Applikation Einsätze verändern (mit WebService)</t>
-  </si>
-  <si>
-    <t>US - JavaFX Applikation Einsätze anlegen (mit WebService)</t>
-  </si>
-  <si>
-    <t>US - JavaFX Applikation Einsätze löschen (mit WebService)</t>
-  </si>
-  <si>
-    <t>US - JavaFX Applikation Stützpunkt anzeigen (mit WebService)</t>
-  </si>
-  <si>
-    <t>US - JavaFX Applikation Stützpunkt anlegen (mit WebService)</t>
-  </si>
-  <si>
-    <t>US - JavaFX Applikation Stützpunkt verändern (mit WebService)</t>
-  </si>
-  <si>
-    <t>US - JavaFX Applikation Stützpunkt löschen (mit WebService)</t>
-  </si>
-  <si>
     <t>US - Webservice Benutzer laden</t>
   </si>
   <si>
@@ -440,27 +404,9 @@
     <t>US - Tabellen mit Testdaten befüllen</t>
   </si>
   <si>
-    <t>US - JavaFX GUI Konzept anlegen</t>
-  </si>
-  <si>
     <t>US - Webservice Benutzer verändern</t>
   </si>
   <si>
-    <t>US - Android Applikation Einsätze als Testdaten anzeigen</t>
-  </si>
-  <si>
-    <t>US - Android Applikation Stützpunkte als Testdaten anzeigen</t>
-  </si>
-  <si>
-    <t>US - JavaFX Applikation Einsätze anzeigen</t>
-  </si>
-  <si>
-    <t>US - JavaFX Applikation Einsätze anlegen</t>
-  </si>
-  <si>
-    <t>US - JavaFX Applikation Einsätze verändern</t>
-  </si>
-  <si>
     <t xml:space="preserve">US - JavaFX Applikation Einsätze löschen </t>
   </si>
   <si>
@@ -468,13 +414,82 @@
   </si>
   <si>
     <t>US - Android GUI Konzept anlegen</t>
+  </si>
+  <si>
+    <t>JavaFX Applikation GUI Konzept Stützpunktverwaltung</t>
+  </si>
+  <si>
+    <t>JavaFX Applikation GUI Konzept Einsatzverwaltung</t>
+  </si>
+  <si>
+    <t>US - JavaFX GUI Konzept Stützpunktverwaltung</t>
+  </si>
+  <si>
+    <t>US - JavaFX GUI Konzept Einsatzverwaltung</t>
+  </si>
+  <si>
+    <t>US - Webservice Login</t>
+  </si>
+  <si>
+    <t>US - Webservice Register</t>
+  </si>
+  <si>
+    <t>US - Android Applikation Einsätze auf der Karte anzeigen</t>
+  </si>
+  <si>
+    <t>US - Android Appliaktion Stützpunkte auf Karte anzeigen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US - JavaFX Applikation Einsätze anzeigen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">US - JavaFX Applikation Einsätze anlegen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">US - JavaFX Applikation Einsätze verändern </t>
+  </si>
+  <si>
+    <t xml:space="preserve">US - JavaFX Applikation Stützpunkt anzeigen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">US - JavaFX Applikation Stützpunkt anlegen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">US - JavaFX Applikation Stützpunkt verändern </t>
+  </si>
+  <si>
+    <t xml:space="preserve">US - JavaFX Applikation Stützpunkt löschen </t>
+  </si>
+  <si>
+    <t>Iteration</t>
+  </si>
+  <si>
+    <t>Legende</t>
+  </si>
+  <si>
+    <t>Wird in der Iteration 1  bearbeitet</t>
+  </si>
+  <si>
+    <t>Wird in der Iteration 2  bearbeitet</t>
+  </si>
+  <si>
+    <t>Wird in der Iteration 3  bearbeitet</t>
+  </si>
+  <si>
+    <t>Android Client US</t>
+  </si>
+  <si>
+    <t>JavaFX Client US</t>
+  </si>
+  <si>
+    <t>Webservice US</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,14 +506,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -506,7 +513,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -549,6 +556,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -571,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -582,16 +601,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1075,10 +1097,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2196546-D8CF-4C65-A015-BD5D70707281}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1270,97 +1292,107 @@
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>59</v>
+      <c r="A32" s="4" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>57</v>
+      <c r="A33" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1371,559 +1403,1031 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F10326-AF2F-4D5C-B1AD-D5133480706B}">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="82.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="60.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="60.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.5703125" customWidth="1"/>
+    <col min="9" max="9" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="9" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M1" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="B2" s="15">
+        <v>3</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="8" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="13"/>
+      <c r="M2" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="B3" s="15">
+        <v>3</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="8" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="13"/>
+      <c r="M3" s="17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="B4" s="15">
+        <v>3</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="13"/>
+      <c r="K4" s="8" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M4" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="16">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="8" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="M5" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="16">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="M6" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="16">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="M7" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B8" s="18">
+        <v>2</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="G8" s="13"/>
+      <c r="H8" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="M8" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="18">
+        <v>2</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="18">
+        <v>2</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="18">
+        <v>2</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="16">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="16">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="16">
+        <v>1</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="16">
+        <v>1</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="16">
+        <v>1</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="16">
+        <v>1</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="18">
+        <v>2</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="18">
+        <v>2</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B21" s="18">
+        <v>2</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="18">
+        <v>2</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="13"/>
+      <c r="H22" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="E10" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="B23" s="16">
+        <v>1</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" s="16">
+        <v>1</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" s="16">
+        <v>1</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" s="16">
+        <v>1</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" s="16">
+        <v>1</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" s="18">
+        <v>2</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="B29" s="16">
+        <v>1</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="D29" s="11" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="E29" s="13"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="B30" s="16">
+        <v>1</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="D30" s="11" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="E30" s="13"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="B31" s="16">
+        <v>1</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="D31" s="12"/>
+      <c r="E31" s="11" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="F31" s="12"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" s="16">
+        <v>1</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="B33" s="16">
+        <v>1</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="D33" s="13"/>
+      <c r="E33" s="11" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="F33" s="12"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B34" s="16">
+        <v>1</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="D34" s="13"/>
+      <c r="E34" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" s="16">
+        <v>1</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="13"/>
+      <c r="E35" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B36" s="16">
+        <v>1</v>
+      </c>
+      <c r="C36" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="D36" s="13"/>
+      <c r="E36" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B37" s="18">
+        <v>2</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="G37" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H37" s="12"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B38" s="18">
+        <v>2</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="G38" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="H38" s="12"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B39" s="18">
+        <v>2</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="G39" s="11" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="H39" s="12"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B40" s="18">
+        <v>2</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="G40" s="11" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="H40" s="12"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B41" s="18">
+        <v>2</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="G41" s="12"/>
+      <c r="H41" s="11" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" s="16">
+        <v>1</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E42" s="13"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" s="16">
+        <v>1</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E43" s="13"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="E30" s="16" t="s">
+      <c r="B44" s="16">
+        <v>1</v>
+      </c>
+      <c r="C44" s="20" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+      <c r="D44" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="E31" s="16" t="s">
+      <c r="B45" s="16">
+        <v>1</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" s="20" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="E32" s="16" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="E33" s="16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E34" s="15"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B46" s="16">
+        <v>1</v>
+      </c>
+      <c r="C46" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D46" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="E35" s="15"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E36" s="15"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>143</v>
-      </c>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FVisual_Documentation/UserStoryListe_BacklogItemsErfassung.xlsx
+++ b/FVisual_Documentation/UserStoryListe_BacklogItemsErfassung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandr\OneDrive - HTL Villach\Schule\Schule\5AHIF\POS1_LIN\Project\FVisual\FVisual_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="647" documentId="13_ncr:1_{1D5C89E9-F122-4CD9-B0A4-16354C845C53}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{35BBFAE0-EEA5-4E26-8EC5-EF0609B039E0}"/>
+  <xr:revisionPtr revIDLastSave="652" documentId="13_ncr:1_{1D5C89E9-F122-4CD9-B0A4-16354C845C53}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{20C9B1A9-C45B-41F8-B52F-4A4FB7FEE900}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{DA8F7C48-B531-4135-8DC3-731F75A6B69C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{DA8F7C48-B531-4135-8DC3-731F75A6B69C}"/>
   </bookViews>
   <sheets>
     <sheet name="TodoListe" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="108">
   <si>
     <t>Iteration 2</t>
   </si>
@@ -143,108 +143,6 @@
     <t>Use Case Diagram erstellen</t>
   </si>
   <si>
-    <t>Android Applikation Login</t>
-  </si>
-  <si>
-    <t>Android Applikation Logout</t>
-  </si>
-  <si>
-    <t>Android Applikation User Daten beartbeiten</t>
-  </si>
-  <si>
-    <t>Android Applikation Karte anzeigen</t>
-  </si>
-  <si>
-    <t>Android Applikation Filteroptionen für Karte</t>
-  </si>
-  <si>
-    <t>Android Applikation Informationen Anzeigen Stützpunkte</t>
-  </si>
-  <si>
-    <t>Android Applikation Informationen Anzeigen Einsätze</t>
-  </si>
-  <si>
-    <t>Android Applikation Einsatzbeteiligung anzeigen</t>
-  </si>
-  <si>
-    <t>JavaFX Applikation Login</t>
-  </si>
-  <si>
-    <t>JavaFX Applikation Logout</t>
-  </si>
-  <si>
-    <t>JavaFX Applikation Benutzer anlegen</t>
-  </si>
-  <si>
-    <t>JavaFX Applikation Benutzer verändern</t>
-  </si>
-  <si>
-    <t>JavaFX Applikation Benutzer löschen</t>
-  </si>
-  <si>
-    <t>JavaFX Applikation Einsätze anlegen</t>
-  </si>
-  <si>
-    <t>JavaFX Applikation Einsätze verändern</t>
-  </si>
-  <si>
-    <t>JavaFX Applikation Stützpunkt anlegen</t>
-  </si>
-  <si>
-    <t>JavaFX Applikation Stützpunkt verändern</t>
-  </si>
-  <si>
-    <t>JavaFX Applikation Stützpunkt löschen</t>
-  </si>
-  <si>
-    <t>JavaFX Applikation Benutzer anzeigen</t>
-  </si>
-  <si>
-    <t>JavaFX Applikation Einsätze anzeigen</t>
-  </si>
-  <si>
-    <t>Webservice Authentication</t>
-  </si>
-  <si>
-    <t>Webservice Benutzer anlegen</t>
-  </si>
-  <si>
-    <t>Webservice Benutzer verändern</t>
-  </si>
-  <si>
-    <t>Webservice Benutzer laden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Webservice Benutzer löschen </t>
-  </si>
-  <si>
-    <t>Webservice Stützpunkte anlegen</t>
-  </si>
-  <si>
-    <t>Webservice Stützpunkte laden</t>
-  </si>
-  <si>
-    <t>Webservice Stützpunkte verändern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Webservice Stützpunkte löschen </t>
-  </si>
-  <si>
-    <t>Webservice Einsätze anlegen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Webservice Einsätze laden </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Webservice Einsätze verändern </t>
-  </si>
-  <si>
-    <t>Webservice Einsätze löschen</t>
-  </si>
-  <si>
-    <t>Tabellen in der Datebank erstellen</t>
-  </si>
-  <si>
     <t>Android US</t>
   </si>
   <si>
@@ -269,27 +167,9 @@
     <t>Produktauftrag</t>
   </si>
   <si>
-    <t>JavaFX Applikation Stützpunkt anzeigen</t>
-  </si>
-  <si>
     <t>DB US</t>
   </si>
   <si>
-    <t>Android Applikation Stützpunkte als Testdaten anzeigen (Ohne DB Zugriff)</t>
-  </si>
-  <si>
-    <t>Android Applikation Einsätze als Testdaten anzeigen (Ohne DB Zugriff)</t>
-  </si>
-  <si>
-    <t>Android Appliaktion Stützpunkte auf Karte anzeigen (DB Zugriff mit WebService)</t>
-  </si>
-  <si>
-    <t>Android Applikation Einsätze auf der Karte anzeigen (DB Zugriff mit WebService)</t>
-  </si>
-  <si>
-    <t>JavaFX Applikation Einsätze löschen</t>
-  </si>
-  <si>
     <t>Modellierung</t>
   </si>
   <si>
@@ -414,12 +294,6 @@
   </si>
   <si>
     <t>US - Android GUI Konzept anlegen</t>
-  </si>
-  <si>
-    <t>JavaFX Applikation GUI Konzept Stützpunktverwaltung</t>
-  </si>
-  <si>
-    <t>JavaFX Applikation GUI Konzept Einsatzverwaltung</t>
   </si>
   <si>
     <t>US - JavaFX GUI Konzept Stützpunktverwaltung</t>
@@ -1097,10 +971,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2196546-D8CF-4C65-A015-BD5D70707281}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,7 +997,7 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1132,7 +1006,7 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1141,7 +1015,7 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1150,250 +1024,260 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>36</v>
+      <c r="A6" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>37</v>
+      <c r="A7" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="20" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="20" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>74</v>
+      <c r="A50" s="20" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>86</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1405,9 +1289,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F10326-AF2F-4D5C-B1AD-D5133480706B}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1427,45 +1311,45 @@
   <sheetData>
     <row r="1" spans="1:13" s="9" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="B2" s="15">
         <v>3</v>
@@ -1477,19 +1361,19 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
       <c r="I2" s="8" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="K2" s="13"/>
       <c r="M2" s="2" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="B3" s="15">
         <v>3</v>
@@ -1501,19 +1385,19 @@
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="8" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="K3" s="13"/>
       <c r="M3" s="17" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="B4" s="15">
         <v>3</v>
@@ -1525,28 +1409,28 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="8" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="J4" s="13"/>
       <c r="K4" s="8" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="B5" s="16">
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
@@ -1556,22 +1440,22 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
       <c r="M5" s="3" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="B6" s="16">
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="8" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -1580,22 +1464,22 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
       <c r="M6" s="4" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="B7" s="16">
         <v>1</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="8" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
@@ -1604,12 +1488,12 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
       <c r="M7" s="5" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="B8" s="18">
         <v>2</v>
@@ -1618,22 +1502,22 @@
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="8" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="8" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
       <c r="M8" s="19" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="B9" s="18">
         <v>2</v>
@@ -1642,10 +1526,10 @@
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
       <c r="F9" s="8" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
@@ -1654,7 +1538,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="B10" s="18">
         <v>2</v>
@@ -1663,10 +1547,10 @@
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="8" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
@@ -1675,7 +1559,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="B11" s="18">
         <v>2</v>
@@ -1684,11 +1568,11 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="8" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="8" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
@@ -1696,17 +1580,17 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="B12" s="16">
         <v>1</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="8" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="13"/>
@@ -1717,16 +1601,16 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="B13" s="16">
         <v>1</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
@@ -1738,16 +1622,16 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="B14" s="16">
         <v>1</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="12"/>
@@ -1759,17 +1643,17 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="B15" s="16">
         <v>1</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="10" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -1780,17 +1664,17 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="B16" s="16">
         <v>1</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="10" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -1801,17 +1685,17 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="B17" s="16">
         <v>1</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="10" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -1822,17 +1706,17 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="B18" s="16">
         <v>1</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="10" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
@@ -1843,7 +1727,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="B19" s="18">
         <v>2</v>
@@ -1852,10 +1736,10 @@
       <c r="D19" s="12"/>
       <c r="E19" s="13"/>
       <c r="F19" s="10" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
@@ -1864,7 +1748,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="B20" s="18">
         <v>2</v>
@@ -1873,10 +1757,10 @@
       <c r="D20" s="12"/>
       <c r="E20" s="13"/>
       <c r="F20" s="10" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
@@ -1885,7 +1769,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="B21" s="18">
         <v>2</v>
@@ -1894,11 +1778,11 @@
       <c r="D21" s="12"/>
       <c r="E21" s="13"/>
       <c r="F21" s="10" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="10" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
@@ -1906,7 +1790,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="B22" s="18">
         <v>2</v>
@@ -1915,11 +1799,11 @@
       <c r="D22" s="12"/>
       <c r="E22" s="13"/>
       <c r="F22" s="10" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="10" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
@@ -1927,16 +1811,16 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="B23" s="16">
         <v>1</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="13"/>
@@ -1948,16 +1832,16 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="B24" s="16">
         <v>1</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="13"/>
@@ -1969,17 +1853,17 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="B25" s="16">
         <v>1</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="10" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
@@ -1990,17 +1874,17 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="B26" s="16">
         <v>1</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="10" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
@@ -2011,16 +1895,16 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="B27" s="16">
         <v>1</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
@@ -2032,7 +1916,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="B28" s="18">
         <v>2</v>
@@ -2041,10 +1925,10 @@
       <c r="D28" s="12"/>
       <c r="E28" s="13"/>
       <c r="F28" s="10" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
@@ -2053,16 +1937,16 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="B29" s="16">
         <v>1</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="12"/>
@@ -2074,16 +1958,16 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="B30" s="16">
         <v>1</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="12"/>
@@ -2095,17 +1979,17 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="B31" s="16">
         <v>1</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="11" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="13"/>
@@ -2116,17 +2000,17 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="B32" s="16">
         <v>1</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="11" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="13"/>
@@ -2137,17 +2021,17 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="B33" s="16">
         <v>1</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="11" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="13"/>
@@ -2158,17 +2042,17 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="B34" s="16">
         <v>1</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="11" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="13"/>
@@ -2179,17 +2063,17 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="B35" s="16">
         <v>1</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="11" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="13"/>
@@ -2200,17 +2084,17 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="B36" s="16">
         <v>1</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="11" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
@@ -2221,7 +2105,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="B37" s="18">
         <v>2</v>
@@ -2230,10 +2114,10 @@
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
       <c r="F37" s="11" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="H37" s="12"/>
       <c r="I37" s="13"/>
@@ -2242,7 +2126,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="B38" s="18">
         <v>2</v>
@@ -2251,10 +2135,10 @@
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
       <c r="F38" s="11" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="13"/>
@@ -2263,7 +2147,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="B39" s="18">
         <v>2</v>
@@ -2272,10 +2156,10 @@
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
       <c r="F39" s="11" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="H39" s="12"/>
       <c r="I39" s="13"/>
@@ -2284,7 +2168,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="B40" s="18">
         <v>2</v>
@@ -2293,10 +2177,10 @@
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
       <c r="F40" s="11" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="H40" s="12"/>
       <c r="I40" s="13"/>
@@ -2305,7 +2189,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="B41" s="18">
         <v>2</v>
@@ -2314,11 +2198,11 @@
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
       <c r="F41" s="11" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="G41" s="12"/>
       <c r="H41" s="11" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="I41" s="13"/>
       <c r="J41" s="13"/>
@@ -2326,16 +2210,16 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="B42" s="16">
         <v>1</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="E42" s="13"/>
       <c r="F42" s="12"/>
@@ -2347,16 +2231,16 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="B43" s="16">
         <v>1</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="E43" s="13"/>
       <c r="F43" s="12"/>
@@ -2368,16 +2252,16 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="B44" s="16">
         <v>1</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
@@ -2389,16 +2273,16 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="B45" s="16">
         <v>1</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
@@ -2410,16 +2294,16 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="B46" s="16">
         <v>1</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
